--- a/src/test/resources/ServiceRoleMapping_InvalidHeaders.xlsx
+++ b/src/test/resources/ServiceRoleMapping_InvalidHeaders.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_224557/Documents/GitHub/duplicate/rd-caseworker-ref-api/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BE31C1-28B5-594E-9F46-70723E707F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED204C6F-53C3-9A43-BC98-D473F1D6279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" xr2:uid="{2E9A26E9-1D6D-094B-B75C-CEBE58038F70}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="1" xr2:uid="{2E9A26E9-1D6D-094B-B75C-CEBE58038F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Service to CW Roles Mapping" sheetId="1" r:id="rId1"/>
+    <sheet name="VERSION" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>BBA9</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>IDAM Role</t>
+  </si>
+  <si>
+    <t>File version</t>
+  </si>
+  <si>
+    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -437,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EC9574-42D9-2D49-9FE6-FC22AA6AFF8E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -517,4 +524,27 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B40EC0-2C16-7D43-9E0F-1DAAA1063C05}">
+  <dimension ref="A6:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/ServiceRoleMapping_InvalidHeaders.xlsx
+++ b/src/test/resources/ServiceRoleMapping_InvalidHeaders.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m_2088737/IdeaProjects/refdata_workspace/RDCC-5182/rd-caseworker-ref-api/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED204C6F-53C3-9A43-BC98-D473F1D6279D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C47E38-7FDD-3C43-A832-FE7FE08B1D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" activeTab="1" xr2:uid="{2E9A26E9-1D6D-094B-B75C-CEBE58038F70}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19500" xr2:uid="{2E9A26E9-1D6D-094B-B75C-CEBE58038F70}"/>
   </bookViews>
   <sheets>
     <sheet name="Service to CW Roles Mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="VERSION" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>BBA9</t>
   </si>
@@ -62,12 +61,6 @@
   </si>
   <si>
     <t>IDAM Role</t>
-  </si>
-  <si>
-    <t>File version</t>
-  </si>
-  <si>
-    <t>vx.xx</t>
   </si>
 </sst>
 </file>
@@ -444,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EC9574-42D9-2D49-9FE6-FC22AA6AFF8E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -524,27 +517,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B40EC0-2C16-7D43-9E0F-1DAAA1063C05}">
-  <dimension ref="A6:B6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>